--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/ATR/atr.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/ATR/atr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\ATR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\ATR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C650D1B3-E07C-431A-8107-ADB7BB565BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FD6FF0-6123-421D-A8D2-E90C38BC3850}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{2098151C-B5D8-4999-8AAB-2D570887D6E5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2098151C-B5D8-4999-8AAB-2D570887D6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATR Back Up" sheetId="1" r:id="rId1"/>
@@ -586,20 +586,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D5812C-CC04-4C23-9449-0357AB8DA747}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,122 +624,122 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6">
-        <v>8.94</v>
+        <v>5.5</v>
       </c>
       <c r="C2" s="6">
-        <v>14.98</v>
+        <v>5.5</v>
       </c>
       <c r="D2" s="6">
-        <v>14.98</v>
+        <v>33.86</v>
       </c>
       <c r="E2" s="6">
-        <v>5.93</v>
+        <v>11.01</v>
       </c>
       <c r="F2" s="6">
-        <v>3.35</v>
+        <v>4.68</v>
       </c>
       <c r="G2" s="7">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>8.73</v>
+        <v>5.39</v>
       </c>
       <c r="C3" s="3">
-        <v>14.05</v>
+        <v>5.39</v>
       </c>
       <c r="D3" s="3">
-        <v>14.05</v>
+        <v>32.92</v>
       </c>
       <c r="E3" s="3">
-        <v>5.1100000000000003</v>
+        <v>10.18</v>
       </c>
       <c r="F3" s="17">
-        <v>2.5</v>
+        <v>3.86</v>
       </c>
       <c r="G3" s="9">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>9.0299999999999994</v>
+        <v>5.61</v>
       </c>
       <c r="C4" s="3">
-        <v>15.28</v>
+        <v>5.61</v>
       </c>
       <c r="D4" s="3">
-        <v>15.28</v>
+        <v>34.25</v>
       </c>
       <c r="E4" s="3">
-        <v>6.18</v>
+        <v>11.28</v>
       </c>
       <c r="F4" s="3">
-        <v>3.58</v>
+        <v>4.95</v>
       </c>
       <c r="G4" s="9">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>12.15</v>
+        <v>6.17</v>
       </c>
       <c r="C5" s="4">
-        <v>18.399999999999999</v>
+        <v>6.17</v>
       </c>
       <c r="D5" s="4">
-        <v>18.399999999999999</v>
+        <v>56.35</v>
       </c>
       <c r="E5" s="4">
-        <v>14.18</v>
+        <v>16.78</v>
       </c>
       <c r="F5" s="4">
-        <v>15.22</v>
+        <v>16.29</v>
       </c>
       <c r="G5" s="11">
-        <v>13.19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="13">
-        <v>2.67</v>
+        <v>-0.6</v>
       </c>
       <c r="C6" s="13">
-        <v>8.32</v>
+        <v>-0.6</v>
       </c>
       <c r="D6" s="13">
-        <v>8.32</v>
+        <v>26.14</v>
       </c>
       <c r="E6" s="13">
-        <v>3.87</v>
+        <v>8.86</v>
       </c>
       <c r="F6" s="13">
-        <v>2.13</v>
+        <v>3.45</v>
       </c>
       <c r="G6" s="14">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
@@ -751,21 +753,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3ADAAE-B783-4A94-9171-A2FBA92D4B10}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" style="16"/>
-    <col min="6" max="6" width="8.88671875" style="16"/>
-    <col min="7" max="7" width="15.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="16"/>
+    <col min="6" max="6" width="8.85546875" style="16"/>
+    <col min="7" max="7" width="15.7109375" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'ATR Back Up'!A1</f>
         <v>Share Class/Benchmark</v>
@@ -798,166 +800,166 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'ATR Back Up'!A2</f>
         <v>Class A</v>
       </c>
       <c r="B2" s="16">
         <f>'ATR Back Up'!B2</f>
-        <v>8.94</v>
+        <v>5.5</v>
       </c>
       <c r="C2" s="16">
         <f>'ATR Back Up'!C2</f>
-        <v>14.98</v>
+        <v>5.5</v>
       </c>
       <c r="D2" s="16">
         <f>'ATR Back Up'!D2</f>
-        <v>14.98</v>
+        <v>33.86</v>
       </c>
       <c r="E2" s="16">
         <f>'ATR Back Up'!E2</f>
-        <v>5.93</v>
+        <v>11.01</v>
       </c>
       <c r="F2" s="16">
         <f>'ATR Back Up'!F2</f>
-        <v>3.35</v>
+        <v>4.68</v>
       </c>
       <c r="G2" s="16">
         <f>'ATR Back Up'!G2</f>
-        <v>2.56</v>
+        <v>3.29</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'ATR Back Up'!A3</f>
         <v>Class C</v>
       </c>
       <c r="B3" s="16">
         <f>'ATR Back Up'!B3</f>
-        <v>8.73</v>
+        <v>5.39</v>
       </c>
       <c r="C3" s="16">
         <f>'ATR Back Up'!C3</f>
-        <v>14.05</v>
+        <v>5.39</v>
       </c>
       <c r="D3" s="16">
         <f>'ATR Back Up'!D3</f>
-        <v>14.05</v>
+        <v>32.92</v>
       </c>
       <c r="E3" s="16">
         <f>'ATR Back Up'!E3</f>
-        <v>5.1100000000000003</v>
+        <v>10.18</v>
       </c>
       <c r="F3" s="16">
         <f>'ATR Back Up'!F3</f>
-        <v>2.5</v>
+        <v>3.86</v>
       </c>
       <c r="G3" s="16">
         <f>'ATR Back Up'!G3</f>
-        <v>1.74</v>
+        <v>2.48</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'ATR Back Up'!A4</f>
         <v>Class I</v>
       </c>
       <c r="B4" s="16">
         <f>'ATR Back Up'!B4</f>
-        <v>9.0299999999999994</v>
+        <v>5.61</v>
       </c>
       <c r="C4" s="16">
         <f>'ATR Back Up'!C4</f>
-        <v>15.28</v>
+        <v>5.61</v>
       </c>
       <c r="D4" s="16">
         <f>'ATR Back Up'!D4</f>
-        <v>15.28</v>
+        <v>34.25</v>
       </c>
       <c r="E4" s="16">
         <f>'ATR Back Up'!E4</f>
-        <v>6.18</v>
+        <v>11.28</v>
       </c>
       <c r="F4" s="16">
         <f>'ATR Back Up'!F4</f>
-        <v>3.58</v>
+        <v>4.95</v>
       </c>
       <c r="G4" s="16">
         <f>'ATR Back Up'!G4</f>
-        <v>2.75</v>
+        <v>3.49</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'ATR Back Up'!A5</f>
         <v>S&amp;P 500 TR Index</v>
       </c>
       <c r="B5" s="16">
         <f>'ATR Back Up'!B5</f>
-        <v>12.15</v>
+        <v>6.17</v>
       </c>
       <c r="C5" s="16">
         <f>'ATR Back Up'!C5</f>
-        <v>18.399999999999999</v>
+        <v>6.17</v>
       </c>
       <c r="D5" s="16">
         <f>'ATR Back Up'!D5</f>
-        <v>18.399999999999999</v>
+        <v>56.35</v>
       </c>
       <c r="E5" s="16">
         <f>'ATR Back Up'!E5</f>
-        <v>14.18</v>
+        <v>16.78</v>
       </c>
       <c r="F5" s="16">
         <f>'ATR Back Up'!F5</f>
-        <v>15.22</v>
+        <v>16.29</v>
       </c>
       <c r="G5" s="16">
         <f>'ATR Back Up'!G5</f>
-        <v>13.19</v>
+        <v>13.69</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'ATR Back Up'!A6</f>
         <v>Class A w/ Sales Charge</v>
       </c>
       <c r="B6" s="16">
         <f>'ATR Back Up'!B6</f>
-        <v>2.67</v>
+        <v>-0.6</v>
       </c>
       <c r="C6" s="16">
         <f>'ATR Back Up'!C6</f>
-        <v>8.32</v>
+        <v>-0.6</v>
       </c>
       <c r="D6" s="16">
         <f>'ATR Back Up'!D6</f>
-        <v>8.32</v>
+        <v>26.14</v>
       </c>
       <c r="E6" s="16">
         <f>'ATR Back Up'!E6</f>
-        <v>3.87</v>
+        <v>8.86</v>
       </c>
       <c r="F6" s="16">
         <f>'ATR Back Up'!F6</f>
-        <v>2.13</v>
+        <v>3.45</v>
       </c>
       <c r="G6" s="16">
         <f>'ATR Back Up'!G6</f>
-        <v>1.61</v>
+        <v>2.37</v>
       </c>
       <c r="H6">
         <v>5</v>
